--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H2">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I2">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J2">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1126243333333333</v>
+        <v>0.008446</v>
       </c>
       <c r="N2">
-        <v>0.337873</v>
+        <v>0.025338</v>
       </c>
       <c r="O2">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="P2">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="Q2">
-        <v>9.992359340972222</v>
+        <v>0.220817452074</v>
       </c>
       <c r="R2">
-        <v>89.93123406874999</v>
+        <v>1.987357068666</v>
       </c>
       <c r="S2">
-        <v>0.008311606334741777</v>
+        <v>0.0005864181221833667</v>
       </c>
       <c r="T2">
-        <v>0.008311606334741777</v>
+        <v>0.0005864181221833667</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H3">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I3">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J3">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>3.323421</v>
       </c>
       <c r="N3">
-        <v>9.970263000000001</v>
+        <v>9.970262999999999</v>
       </c>
       <c r="O3">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949732</v>
       </c>
       <c r="P3">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949733</v>
       </c>
       <c r="Q3">
-        <v>294.86360443125</v>
+        <v>86.889575821599</v>
       </c>
       <c r="R3">
-        <v>2653.77243988125</v>
+        <v>782.006182394391</v>
       </c>
       <c r="S3">
-        <v>0.245266419956142</v>
+        <v>0.2307499765622503</v>
       </c>
       <c r="T3">
-        <v>0.245266419956142</v>
+        <v>0.2307499765622504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H4">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I4">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J4">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.963852666666665</v>
+        <v>4.174437666666667</v>
       </c>
       <c r="N4">
-        <v>20.891558</v>
+        <v>12.523313</v>
       </c>
       <c r="O4">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="P4">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="Q4">
-        <v>617.8533198236109</v>
+        <v>109.139082334249</v>
       </c>
       <c r="R4">
-        <v>5560.679878412499</v>
+        <v>982.2517410082411</v>
       </c>
       <c r="S4">
-        <v>0.5139280315841314</v>
+        <v>0.2898373073239618</v>
       </c>
       <c r="T4">
-        <v>0.5139280315841315</v>
+        <v>0.2898373073239618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>53.74755</v>
       </c>
       <c r="I5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1126243333333333</v>
+        <v>0.008446</v>
       </c>
       <c r="N5">
-        <v>0.337873</v>
+        <v>0.025338</v>
       </c>
       <c r="O5">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="P5">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="Q5">
-        <v>2.01776066235</v>
+        <v>0.1513172691</v>
       </c>
       <c r="R5">
-        <v>18.15984596115</v>
+        <v>1.3618554219</v>
       </c>
       <c r="S5">
-        <v>0.001678365612254821</v>
+        <v>0.0004018486218643642</v>
       </c>
       <c r="T5">
-        <v>0.001678365612254821</v>
+        <v>0.0004018486218643642</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>53.74755</v>
       </c>
       <c r="I6">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J6">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>3.323421</v>
       </c>
       <c r="N6">
-        <v>9.970263000000001</v>
+        <v>9.970262999999999</v>
       </c>
       <c r="O6">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949732</v>
       </c>
       <c r="P6">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949733</v>
       </c>
       <c r="Q6">
         <v>59.54191212285</v>
@@ -818,10 +818,10 @@
         <v>535.87720910565</v>
       </c>
       <c r="S6">
-        <v>0.04952673508784836</v>
+        <v>0.1581236264178412</v>
       </c>
       <c r="T6">
-        <v>0.04952673508784837</v>
+        <v>0.1581236264178412</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>53.74755</v>
       </c>
       <c r="I7">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J7">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.963852666666665</v>
+        <v>4.174437666666667</v>
       </c>
       <c r="N7">
-        <v>20.891558</v>
+        <v>12.523313</v>
       </c>
       <c r="O7">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="P7">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="Q7">
-        <v>124.7633397981</v>
+        <v>74.78859907035002</v>
       </c>
       <c r="R7">
-        <v>1122.8700581829</v>
+        <v>673.0973916331501</v>
       </c>
       <c r="S7">
-        <v>0.1037776695196926</v>
+        <v>0.1986137844433687</v>
       </c>
       <c r="T7">
-        <v>0.1037776695196926</v>
+        <v>0.1986137844433687</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H8">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I8">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J8">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1126243333333333</v>
+        <v>0.008446</v>
       </c>
       <c r="N8">
-        <v>0.337873</v>
+        <v>0.025338</v>
       </c>
       <c r="O8">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="P8">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="Q8">
-        <v>1.009137940566778</v>
+        <v>0.05155790035133333</v>
       </c>
       <c r="R8">
-        <v>9.082241465100999</v>
+        <v>0.464021103162</v>
       </c>
       <c r="S8">
-        <v>0.0008393970846355712</v>
+        <v>0.0001369207316893318</v>
       </c>
       <c r="T8">
-        <v>0.0008393970846355713</v>
+        <v>0.0001369207316893318</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H9">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I9">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J9">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>3.323421</v>
       </c>
       <c r="N9">
-        <v>9.970263000000001</v>
+        <v>9.970262999999999</v>
       </c>
       <c r="O9">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949732</v>
       </c>
       <c r="P9">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949733</v>
       </c>
       <c r="Q9">
-        <v>29.778557833059</v>
+        <v>20.287545434943</v>
       </c>
       <c r="R9">
-        <v>268.007020497531</v>
+        <v>182.587908914487</v>
       </c>
       <c r="S9">
-        <v>0.02476969066853494</v>
+        <v>0.05387701101488167</v>
       </c>
       <c r="T9">
-        <v>0.02476969066853494</v>
+        <v>0.05387701101488168</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H10">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I10">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J10">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.963852666666665</v>
+        <v>4.174437666666667</v>
       </c>
       <c r="N10">
-        <v>20.891558</v>
+        <v>12.523313</v>
       </c>
       <c r="O10">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="P10">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="Q10">
-        <v>62.39759855138287</v>
+        <v>25.48250547488189</v>
       </c>
       <c r="R10">
-        <v>561.5783869624458</v>
+        <v>229.342549273937</v>
       </c>
       <c r="S10">
-        <v>0.05190208415201849</v>
+        <v>0.06767310676195913</v>
       </c>
       <c r="T10">
-        <v>0.0519020841520185</v>
+        <v>0.06767310676195913</v>
       </c>
     </row>
   </sheetData>
